--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H2">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.332491664751941</v>
+        <v>0.5915956666666666</v>
       </c>
       <c r="N2">
-        <v>0.332491664751941</v>
+        <v>1.774787</v>
       </c>
       <c r="O2">
-        <v>0.08052193974240464</v>
+        <v>0.127834779324208</v>
       </c>
       <c r="P2">
-        <v>0.08052193974240464</v>
+        <v>0.127834779324208</v>
       </c>
       <c r="Q2">
-        <v>5.270720920897024</v>
+        <v>0.1452278622316666</v>
       </c>
       <c r="R2">
-        <v>5.270720920897024</v>
+        <v>1.307050760085</v>
       </c>
       <c r="S2">
-        <v>0.08052193974240464</v>
+        <v>0.001931803706638728</v>
       </c>
       <c r="T2">
-        <v>0.08052193974240464</v>
+        <v>0.001931803706638728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H3">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.06379021734472</v>
+        <v>1.070248333333333</v>
       </c>
       <c r="N3">
-        <v>1.06379021734472</v>
+        <v>3.210745</v>
       </c>
       <c r="O3">
-        <v>0.257625862120476</v>
+        <v>0.2312643030072366</v>
       </c>
       <c r="P3">
-        <v>0.257625862120476</v>
+        <v>0.2312643030072365</v>
       </c>
       <c r="Q3">
-        <v>16.86340425462253</v>
+        <v>0.2627299121083334</v>
       </c>
       <c r="R3">
-        <v>16.86340425462253</v>
+        <v>2.364569208975</v>
       </c>
       <c r="S3">
-        <v>0.257625862120476</v>
+        <v>0.003494801963318282</v>
       </c>
       <c r="T3">
-        <v>0.257625862120476</v>
+        <v>0.003494801963318281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H4">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.520427762179192</v>
+        <v>0.603607</v>
       </c>
       <c r="N4">
-        <v>0.520427762179192</v>
+        <v>1.810821</v>
       </c>
       <c r="O4">
-        <v>0.126035799837965</v>
+        <v>0.1304302448297411</v>
       </c>
       <c r="P4">
-        <v>0.126035799837965</v>
+        <v>0.1304302448297411</v>
       </c>
       <c r="Q4">
-        <v>8.249919576119165</v>
+        <v>0.148176464395</v>
       </c>
       <c r="R4">
-        <v>8.249919576119165</v>
+        <v>1.333588179555</v>
       </c>
       <c r="S4">
-        <v>0.126035799837965</v>
+        <v>0.001971025661028196</v>
       </c>
       <c r="T4">
-        <v>0.126035799837965</v>
+        <v>0.001971025661028195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H5">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.687774755039874</v>
+        <v>0.7085566666666666</v>
       </c>
       <c r="N5">
-        <v>0.687774755039874</v>
+        <v>2.12567</v>
       </c>
       <c r="O5">
-        <v>0.1665634458024246</v>
+        <v>0.1531082633386932</v>
       </c>
       <c r="P5">
-        <v>0.1665634458024246</v>
+        <v>0.1531082633386932</v>
       </c>
       <c r="Q5">
-        <v>10.90273584138722</v>
+        <v>0.1739400333166666</v>
       </c>
       <c r="R5">
-        <v>10.90273584138722</v>
+        <v>1.56546029985</v>
       </c>
       <c r="S5">
-        <v>0.1665634458024246</v>
+        <v>0.002313729582812329</v>
       </c>
       <c r="T5">
-        <v>0.1665634458024246</v>
+        <v>0.002313729582812329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H6">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.442293655979779</v>
+        <v>0.447354</v>
       </c>
       <c r="N6">
-        <v>0.442293655979779</v>
+        <v>1.342062</v>
       </c>
       <c r="O6">
-        <v>0.1071134915271397</v>
+        <v>0.0966663603065637</v>
       </c>
       <c r="P6">
-        <v>0.1071134915271397</v>
+        <v>0.09666636030656368</v>
       </c>
       <c r="Q6">
-        <v>7.011322907874622</v>
+        <v>0.10981869669</v>
       </c>
       <c r="R6">
-        <v>7.011322907874622</v>
+        <v>0.9883682702099998</v>
       </c>
       <c r="S6">
-        <v>0.1071134915271397</v>
+        <v>0.001460795208742787</v>
       </c>
       <c r="T6">
-        <v>0.1071134915271397</v>
+        <v>0.001460795208742786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H7">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.08242779612344</v>
+        <v>1.206453</v>
       </c>
       <c r="N7">
-        <v>1.08242779612344</v>
+        <v>3.619359</v>
       </c>
       <c r="O7">
-        <v>0.2621394609695902</v>
+        <v>0.2606960491935574</v>
       </c>
       <c r="P7">
-        <v>0.2621394609695902</v>
+        <v>0.2606960491935574</v>
       </c>
       <c r="Q7">
-        <v>17.15885068771478</v>
+        <v>0.296166114705</v>
       </c>
       <c r="R7">
-        <v>17.15885068771478</v>
+        <v>2.665495032345</v>
       </c>
       <c r="S7">
-        <v>0.2621394609695902</v>
+        <v>0.003939566343373171</v>
       </c>
       <c r="T7">
-        <v>0.2621394609695902</v>
+        <v>0.00393956634337317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H8">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J8">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5915956666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.774787</v>
+      </c>
+      <c r="O8">
+        <v>0.127834779324208</v>
+      </c>
+      <c r="P8">
+        <v>0.127834779324208</v>
+      </c>
+      <c r="Q8">
+        <v>9.465050685382446</v>
+      </c>
+      <c r="R8">
+        <v>85.185456168442</v>
+      </c>
+      <c r="S8">
+        <v>0.1259029756175693</v>
+      </c>
+      <c r="T8">
+        <v>0.1259029756175693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H9">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J9">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.070248333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.210745</v>
+      </c>
+      <c r="O9">
+        <v>0.2312643030072366</v>
+      </c>
+      <c r="P9">
+        <v>0.2312643030072365</v>
+      </c>
+      <c r="Q9">
+        <v>17.12310500518556</v>
+      </c>
+      <c r="R9">
+        <v>154.10794504667</v>
+      </c>
+      <c r="S9">
+        <v>0.2277695010439183</v>
+      </c>
+      <c r="T9">
+        <v>0.2277695010439182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H10">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J10">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.603607</v>
+      </c>
+      <c r="N10">
+        <v>1.810821</v>
+      </c>
+      <c r="O10">
+        <v>0.1304302448297411</v>
+      </c>
+      <c r="P10">
+        <v>0.1304302448297411</v>
+      </c>
+      <c r="Q10">
+        <v>9.657222273520668</v>
+      </c>
+      <c r="R10">
+        <v>86.91500046168601</v>
+      </c>
+      <c r="S10">
+        <v>0.1284592191687129</v>
+      </c>
+      <c r="T10">
+        <v>0.1284592191687129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H11">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J11">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7085566666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.12567</v>
+      </c>
+      <c r="O11">
+        <v>0.1531082633386932</v>
+      </c>
+      <c r="P11">
+        <v>0.1531082633386932</v>
+      </c>
+      <c r="Q11">
+        <v>11.33633179102445</v>
+      </c>
+      <c r="R11">
+        <v>102.02698611922</v>
+      </c>
+      <c r="S11">
+        <v>0.1507945337558809</v>
+      </c>
+      <c r="T11">
+        <v>0.1507945337558808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H12">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I12">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J12">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.447354</v>
+      </c>
+      <c r="N12">
+        <v>1.342062</v>
+      </c>
+      <c r="O12">
+        <v>0.0966663603065637</v>
+      </c>
+      <c r="P12">
+        <v>0.09666636030656368</v>
+      </c>
+      <c r="Q12">
+        <v>7.157301046788</v>
+      </c>
+      <c r="R12">
+        <v>64.415709421092</v>
+      </c>
+      <c r="S12">
+        <v>0.09520556509782092</v>
+      </c>
+      <c r="T12">
+        <v>0.0952055650978209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H13">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I13">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J13">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.206453</v>
+      </c>
+      <c r="N13">
+        <v>3.619359</v>
+      </c>
+      <c r="O13">
+        <v>0.2606960491935574</v>
+      </c>
+      <c r="P13">
+        <v>0.2606960491935574</v>
+      </c>
+      <c r="Q13">
+        <v>19.302269164466</v>
+      </c>
+      <c r="R13">
+        <v>173.720422480194</v>
+      </c>
+      <c r="S13">
+        <v>0.2567564828501843</v>
+      </c>
+      <c r="T13">
+        <v>0.2567564828501843</v>
       </c>
     </row>
   </sheetData>
